--- a/ЭП/LR_2.xlsx
+++ b/ЭП/LR_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\STUD_FILES\BSUIR\KURS2\university-stuff\ЭП\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD2CE37F-D779-4FDE-97FA-A2E7181F5CE5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD6C4CD-4825-4145-B90C-FBD24DB06D77}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>TRANZ:</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>Iс=f(Uси)</t>
-  </si>
-  <si>
-    <t>Uзи=0В</t>
   </si>
   <si>
     <t>К176ЛП1</t>
@@ -667,11 +664,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$14</c:f>
+              <c:f>Sheet1!$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Uзи=0В</c:v>
+                  <c:v>Uзи=</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -796,7 +793,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$19:$B$19</c:f>
+              <c:f>Sheet1!$B$17:$C$17</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -834,7 +831,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$20:$L$20</c:f>
+              <c:f>Sheet1!$B$18:$L$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -876,7 +873,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$21:$L$21</c:f>
+              <c:f>Sheet1!$B$19:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -928,7 +925,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$24:$B$24</c:f>
+              <c:f>Sheet1!$B$20:$C$20</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -966,7 +963,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$25:$L$25</c:f>
+              <c:f>Sheet1!$B$21:$L$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -1008,7 +1005,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$26:$L$26</c:f>
+              <c:f>Sheet1!$B$22:$L$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2390,15 +2387,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>104180</xdr:colOff>
+      <xdr:colOff>184776</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>92868</xdr:rowOff>
+      <xdr:rowOff>78214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>425649</xdr:colOff>
+      <xdr:colOff>506245</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>169068</xdr:rowOff>
+      <xdr:rowOff>154414</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2725,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:M48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2738,19 +2735,17 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
-      </c>
-      <c r="C1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2836,14 +2831,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>6</v>
-      </c>
-    </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2922,60 +2918,107 @@
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+    </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>5</v>
+      </c>
+      <c r="H18">
         <v>6</v>
+      </c>
+      <c r="I18">
+        <v>7</v>
+      </c>
+      <c r="J18">
+        <v>8</v>
+      </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
+      <c r="L18">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
         <v>4</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19">
+        <v>12</v>
+      </c>
+      <c r="I19">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>17</v>
+      </c>
+      <c r="K19">
+        <v>19</v>
+      </c>
+      <c r="L19">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="D20">
-        <v>2</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>4</v>
-      </c>
-      <c r="G20">
-        <v>5</v>
-      </c>
-      <c r="H20">
         <v>6</v>
-      </c>
-      <c r="I20">
-        <v>7</v>
-      </c>
-      <c r="J20">
-        <v>8</v>
-      </c>
-      <c r="K20">
-        <v>9</v>
-      </c>
-      <c r="L20">
-        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2987,129 +3030,76 @@
         <v>2</v>
       </c>
       <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
         <v>6</v>
       </c>
-      <c r="G21">
+      <c r="I21">
+        <v>7</v>
+      </c>
+      <c r="J21">
+        <v>8</v>
+      </c>
+      <c r="K21">
         <v>9</v>
       </c>
-      <c r="H21">
-        <v>12</v>
-      </c>
-      <c r="I21">
+      <c r="L21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>13</v>
+      </c>
+      <c r="G22">
         <v>15</v>
       </c>
-      <c r="J21">
-        <v>17</v>
-      </c>
-      <c r="K21">
+      <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="I22">
         <v>19</v>
       </c>
-      <c r="L21">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>2</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>2</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>7</v>
-      </c>
-      <c r="J25">
-        <v>8</v>
-      </c>
-      <c r="K25">
-        <v>9</v>
-      </c>
-      <c r="L25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26">
-        <v>10</v>
-      </c>
-      <c r="F26">
-        <v>13</v>
-      </c>
-      <c r="G26">
-        <v>15</v>
-      </c>
-      <c r="H26">
-        <v>18</v>
-      </c>
-      <c r="I26">
-        <v>19</v>
-      </c>
-      <c r="J26">
+      <c r="J22">
         <v>20</v>
       </c>
-      <c r="K26">
+      <c r="K22">
         <v>20</v>
       </c>
-      <c r="L26">
+      <c r="L22">
         <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34">
         <v>4</v>
       </c>
     </row>
@@ -3191,7 +3181,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37">
         <f>C35-B35</f>
@@ -3236,7 +3226,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B38">
         <f>C36-B36</f>
@@ -3279,93 +3269,93 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B40" s="3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="3">
         <f>B37/B38</f>
         <v>1</v>
       </c>
-      <c r="C40" s="3">
-        <f t="shared" ref="C40:K40" si="2">C37/C38</f>
+      <c r="C39" s="3">
+        <f>C37/C38</f>
         <v>1</v>
       </c>
-      <c r="D40" s="3">
-        <f t="shared" si="2"/>
+      <c r="D39" s="3">
+        <f>D37/D38</f>
         <v>0.5</v>
       </c>
-      <c r="E40" s="3">
-        <f t="shared" si="2"/>
+      <c r="E39" s="3">
+        <f>E37/E38</f>
         <v>0.5</v>
       </c>
-      <c r="F40" s="3">
-        <f t="shared" si="2"/>
+      <c r="F39" s="3">
+        <f>F37/F38</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="G40" s="3">
-        <f t="shared" si="2"/>
+      <c r="G39" s="3">
+        <f>G37/G38</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="H40" s="3">
-        <f t="shared" si="2"/>
+      <c r="H39" s="3">
+        <f>H37/H38</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="I40" s="3">
-        <f t="shared" si="2"/>
+      <c r="I39" s="3">
+        <f>I37/I38</f>
         <v>0.5</v>
       </c>
-      <c r="J40" s="3">
-        <f t="shared" si="2"/>
+      <c r="J39" s="3">
+        <f>J37/J38</f>
         <v>0.5</v>
       </c>
-      <c r="K40" s="4">
-        <f t="shared" si="2"/>
+      <c r="K39" s="4">
+        <f>K37/K38</f>
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" s="1">
-        <f>B49*B40</f>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1">
+        <f>B48*B39</f>
         <v>0.90000000000000013</v>
       </c>
-      <c r="C41" s="1">
-        <f t="shared" ref="C41:K41" si="3">C49*C40</f>
+      <c r="C40" s="1">
+        <f>C48*C39</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D41" s="1">
-        <f t="shared" si="3"/>
+      <c r="D40" s="1">
+        <f>D48*D39</f>
         <v>0.15</v>
       </c>
-      <c r="E41" s="1">
-        <f t="shared" si="3"/>
+      <c r="E40" s="1">
+        <f>E48*E39</f>
         <v>0.35</v>
       </c>
-      <c r="F41" s="1">
-        <f t="shared" si="3"/>
+      <c r="F40" s="1">
+        <f>F48*F39</f>
         <v>0.13333333333333336</v>
       </c>
-      <c r="G41" s="1">
-        <f t="shared" si="3"/>
+      <c r="G40" s="1">
+        <f>G48*G39</f>
         <v>0.36</v>
       </c>
-      <c r="H41" s="1">
-        <f t="shared" si="3"/>
+      <c r="H40" s="1">
+        <f>H48*H39</f>
         <v>0.16499999999999995</v>
       </c>
-      <c r="I41" s="1">
-        <f t="shared" si="3"/>
+      <c r="I40" s="1">
+        <f>I48*I39</f>
         <v>0.24750000000000005</v>
       </c>
-      <c r="J41" s="1">
-        <f t="shared" si="3"/>
+      <c r="J40" s="1">
+        <f>J48*J39</f>
         <v>0.33499999999999996</v>
       </c>
-      <c r="K41" s="6">
-        <f t="shared" si="3"/>
+      <c r="K40" s="6">
+        <f>K48*K39</f>
         <v>0.47999999999999954</v>
       </c>
     </row>
@@ -3453,148 +3443,148 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B46">
         <f>C44-B44</f>
         <v>0.90000000000000013</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:L46" si="4">D44-C44</f>
+        <f t="shared" ref="C46:L46" si="2">D44-C44</f>
         <v>0.39999999999999997</v>
       </c>
       <c r="D46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="E46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.7</v>
       </c>
       <c r="F46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.40000000000000013</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.08</v>
       </c>
       <c r="H46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.98999999999999977</v>
       </c>
       <c r="I46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.9800000000000004</v>
       </c>
       <c r="J46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.66999999999999993</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0.47999999999999954</v>
       </c>
       <c r="L46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>1.2000000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B47">
         <f>C45-B45</f>
         <v>1</v>
       </c>
       <c r="C47">
-        <f t="shared" ref="C47:L47" si="5">D45-C45</f>
+        <f t="shared" ref="C47:L47" si="3">D45-C45</f>
         <v>1</v>
       </c>
       <c r="D47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="E47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="F47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="I47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="J47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="K47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B49" s="8">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="8">
         <f>B46/B47</f>
         <v>0.90000000000000013</v>
       </c>
-      <c r="C49" s="8">
-        <f t="shared" ref="C49:L49" si="6">C46/C47</f>
+      <c r="C48" s="8">
+        <f>C46/C47</f>
         <v>0.39999999999999997</v>
       </c>
-      <c r="D49" s="8">
-        <f t="shared" si="6"/>
+      <c r="D48" s="8">
+        <f>D46/D47</f>
         <v>0.3</v>
       </c>
-      <c r="E49" s="8">
-        <f t="shared" si="6"/>
+      <c r="E48" s="8">
+        <f>E46/E47</f>
         <v>0.7</v>
       </c>
-      <c r="F49" s="8">
-        <f t="shared" si="6"/>
+      <c r="F48" s="8">
+        <f>F46/F47</f>
         <v>0.40000000000000013</v>
       </c>
-      <c r="G49" s="8">
-        <f t="shared" si="6"/>
+      <c r="G48" s="8">
+        <f>G46/G47</f>
         <v>1.08</v>
       </c>
-      <c r="H49" s="8">
-        <f t="shared" si="6"/>
+      <c r="H48" s="8">
+        <f>H46/H47</f>
         <v>0.49499999999999988</v>
       </c>
-      <c r="I49" s="8">
-        <f t="shared" si="6"/>
+      <c r="I48" s="8">
+        <f>I46/I47</f>
         <v>0.49500000000000011</v>
       </c>
-      <c r="J49" s="8">
-        <f t="shared" si="6"/>
+      <c r="J48" s="8">
+        <f>J46/J47</f>
         <v>0.66999999999999993</v>
       </c>
-      <c r="K49" s="8">
-        <f t="shared" si="6"/>
+      <c r="K48" s="8">
+        <f>K46/K47</f>
         <v>0.47999999999999954</v>
       </c>
-      <c r="L49" s="9">
-        <f t="shared" si="6"/>
+      <c r="L48" s="9">
+        <f>L46/L47</f>
         <v>1.2000000000000002</v>
       </c>
     </row>
